--- a/sputnik/personal/ee/214ee.xlsx
+++ b/sputnik/personal/ee/214ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,10 +36,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>переплата</t>
-  </si>
-  <si>
-    <t>ошибка в показаниях</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -53,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,14 +79,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -108,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,11 +129,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -148,33 +159,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -496,582 +496,442 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43872</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43872</v>
-      </c>
+        <v>43615</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>12845</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3370</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>43691</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11">
-        <v>14745</v>
-      </c>
-      <c r="D3" s="3">
-        <f>SUM(C3,-C5)</f>
-        <v>400</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C4" s="3">
+        <v>13095</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>250</v>
+      </c>
+      <c r="E4" s="7">
         <v>4.49</v>
       </c>
-      <c r="F3" s="6">
-        <f>D3*E3</f>
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3" t="s">
+      <c r="F4" s="10">
+        <f>D4*E4</f>
+        <v>1122.5</v>
+      </c>
+      <c r="G4" s="11">
+        <f>SUM(F4,F5)</f>
+        <v>1608.5</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1620.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
-        <v>3980</v>
-      </c>
-      <c r="D4" s="3">
-        <f>SUM(C4,-C6)</f>
-        <v>100</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="C5" s="3">
+        <v>3570</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E5" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F4" s="6">
-        <f>D4*E4</f>
-        <v>243.00000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43833</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="F5" s="10">
+        <f>D5*E5</f>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>43735</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="11">
-        <v>14345</v>
-      </c>
-      <c r="D5" s="3">
-        <f>SUM(C5,-C8)</f>
-        <v>400</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C6" s="8">
+        <v>13145</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
         <v>4.49</v>
       </c>
-      <c r="F5" s="6">
-        <f>D5*E5</f>
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3" t="s">
+      <c r="F6" s="10">
+        <v>1849</v>
+      </c>
+      <c r="G6" s="11">
+        <f>SUM(F6,F7)</f>
+        <v>1849</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="11">
-        <v>3880</v>
-      </c>
-      <c r="D6" s="3">
-        <f>SUM(C6,-C9)</f>
-        <v>100</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="C7" s="8">
+        <v>3570</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F6" s="6">
-        <f>D6*E6</f>
-        <v>243.00000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>43833</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43753</v>
+        <v>43746</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="14">
-        <v>13945</v>
-      </c>
-      <c r="D8" s="11">
-        <f>SUM(C8,-C11)</f>
+      <c r="C8" s="9">
+        <v>13545</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM(C8,-C6)</f>
         <v>400</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>4.49</v>
       </c>
-      <c r="F8" s="6">
-        <f>D8*E8</f>
+      <c r="F8" s="10">
+        <f t="shared" ref="F8:F15" si="1">D8*E8</f>
         <v>1796</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="11">
+        <f>SUM(F8,F9)</f>
+        <v>2282</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="14">
-        <v>3780</v>
-      </c>
-      <c r="D9" s="11">
-        <f>SUM(C9,-C12)</f>
-        <v>10</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="C9" s="9">
+        <v>3770</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM(C9,-C7)</f>
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="6">
-        <f>D9*E9</f>
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="10">
+        <f t="shared" si="1"/>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43753</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13">
-        <v>31.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43746</v>
-      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>13945</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D15" si="2">SUM(C10,-C8)</f>
+        <v>400</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="1"/>
+        <v>1796</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(F10,F11)</f>
+        <v>1820.3</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1851.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3780</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="1"/>
+        <v>24.3</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>43833</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="14">
-        <v>13545</v>
-      </c>
-      <c r="D11" s="3">
-        <f>SUM(C11,-C14)</f>
+      <c r="C12" s="8">
+        <v>14345</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="7">
         <v>4.49</v>
       </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
+      <c r="F12" s="10">
+        <f t="shared" si="1"/>
         <v>1796</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
+      <c r="G12" s="11">
+        <f>SUM(F12,F13)</f>
+        <v>2039</v>
+      </c>
+      <c r="H12" s="11">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="14">
-        <v>3770</v>
-      </c>
-      <c r="D12" s="3">
-        <f>SUM(C12,-C15)</f>
-        <v>200</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="C13" s="8">
+        <v>3880</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E13" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>486.00000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="10">
+        <f t="shared" si="1"/>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43735</v>
+        <v>43872</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="11">
-        <v>13145</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="8">
+        <v>14745</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="E14" s="7">
         <v>4.49</v>
       </c>
-      <c r="F14" s="6">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="10">
+        <f t="shared" si="1"/>
+        <v>1796</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(F14,F15)</f>
+        <v>2039</v>
+      </c>
+      <c r="H14" s="11">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="11">
-        <v>3570</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="C15" s="8">
+        <v>3980</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="10">
+        <f t="shared" si="1"/>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43691</v>
+        <v>43915</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="3">
-        <v>13095</v>
+      <c r="C16" s="8">
+        <v>14995</v>
       </c>
       <c r="D16" s="3">
-        <f>C16-C19</f>
+        <f t="shared" ref="D16:D17" si="3">SUM(C16,-C14)</f>
         <v>250</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>4.49</v>
       </c>
-      <c r="F16" s="6">
-        <f>D16*E16</f>
+      <c r="F16" s="10">
+        <f t="shared" ref="F16:F17" si="4">D16*E16</f>
         <v>1122.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="11">
+        <f>SUM(F16,F17)</f>
+        <v>1341.2</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1381.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="3">
-        <v>3570</v>
+      <c r="C17" s="8">
+        <v>4070</v>
       </c>
       <c r="D17" s="3">
-        <f>C17-C20</f>
-        <v>200</v>
-      </c>
-      <c r="E17" s="10">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="E17" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F17" s="6">
-        <f>D17*E17</f>
-        <v>486.00000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>43691</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>43615</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>12845</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" ref="D19:D28" si="0">C19-C21</f>
-        <v>250</v>
-      </c>
-      <c r="E19" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F19" s="6">
-        <f>D19*E19</f>
-        <v>1142.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3370</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F20" s="6">
-        <f>D20*E20</f>
-        <v>478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>43569</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>12595</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>1045</v>
-      </c>
-      <c r="E21" s="8">
-        <v>4.57</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" ref="F21:F28" si="1">D21*E21</f>
-        <v>4775.6500000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3170</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="1"/>
-        <v>454.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>43407</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>11550</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="E23" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="1"/>
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2980</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>43358</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
-        <v>11050</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="0"/>
-        <v>630</v>
-      </c>
-      <c r="E25" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" si="1"/>
-        <v>2835</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2880</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F26" s="6">
-        <f t="shared" si="1"/>
-        <v>352.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>43295</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3">
-        <v>10420</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="0"/>
-        <v>730</v>
-      </c>
-      <c r="E27" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F27" s="6">
-        <f t="shared" si="1"/>
-        <v>3285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2730</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F28" s="6">
-        <f t="shared" si="1"/>
-        <v>423</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>43225</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="5">
-        <v>9690</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5">
-        <v>2550</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="F17" s="10">
+        <f t="shared" si="4"/>
+        <v>218.70000000000002</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(G2:G17)</f>
+        <v>12979</v>
+      </c>
+      <c r="H18" s="11">
+        <f>SUM(H2:H17)</f>
+        <v>13142.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11">
+        <f>SUM(H18,-G18)</f>
+        <v>163.89999999999964</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/214ee.xlsx
+++ b/sputnik/personal/ee/214ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -911,26 +911,77 @@
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="4">
+        <v>44011</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>15245</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="5">SUM(C18,-C16)</f>
+        <v>250</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" ref="F18:F19" si="6">D18*E18</f>
+        <v>1122.5</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(F18,F19)</f>
+        <v>1608.5</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1620.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4270</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="6"/>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="11">
-        <f>SUM(G2:G17)</f>
-        <v>12979</v>
-      </c>
-      <c r="H18" s="11">
-        <f>SUM(H2:H17)</f>
-        <v>13142.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+      <c r="G20" s="11">
+        <f>SUM(G2:G19)</f>
+        <v>14587.5</v>
+      </c>
+      <c r="H20" s="11">
+        <f>SUM(H2:H19)</f>
+        <v>14763.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11">
-        <f>SUM(H18,-G18)</f>
-        <v>163.89999999999964</v>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11">
+        <f>SUM(H20,-G20)</f>
+        <v>175.89999999999964</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/214ee.xlsx
+++ b/sputnik/personal/ee/214ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -962,26 +962,77 @@
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="4">
+        <v>44036</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>15495</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="7">SUM(C20,-C18)</f>
+        <v>250</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" ref="F20:F21" si="8">D20*E20</f>
+        <v>1177.5</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(F20,F21)</f>
+        <v>1432.5</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1431.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>4370</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="8"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="11">
-        <f>SUM(G2:G19)</f>
-        <v>14587.5</v>
-      </c>
-      <c r="H20" s="11">
-        <f>SUM(H2:H19)</f>
-        <v>14763.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+      <c r="G22" s="11">
+        <f>SUM(G2:G21)</f>
+        <v>16020</v>
+      </c>
+      <c r="H22" s="11">
+        <f>SUM(H2:H21)</f>
+        <v>16194.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11">
-        <f>SUM(H20,-G20)</f>
-        <v>175.89999999999964</v>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11">
+        <f>SUM(H22,-G22)</f>
+        <v>174.89999999999964</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/214ee.xlsx
+++ b/sputnik/personal/ee/214ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F23" sqref="F22:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1013,25 +1013,76 @@
       <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="4">
+        <v>44057</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>15745</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="9">SUM(C22,-C20)</f>
+        <v>250</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" ref="F22:F23" si="10">D22*E22</f>
+        <v>1177.5</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(F22,F23)</f>
+        <v>1687.5</v>
+      </c>
+      <c r="H22" s="11">
+        <v>1432.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4570</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="10"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G24" s="11">
         <f>SUM(G2:G21)</f>
         <v>16020</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H24" s="11">
         <f>SUM(H2:H21)</f>
         <v>16194.9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11">
-        <f>SUM(H22,-G22)</f>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11">
+        <f>SUM(H24,-G24)</f>
         <v>174.89999999999964</v>
       </c>
     </row>

--- a/sputnik/personal/ee/214ee.xlsx
+++ b/sputnik/personal/ee/214ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F22:F23"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1064,25 +1064,76 @@
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="4">
+        <v>44088</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8">
+        <v>15995</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="11">SUM(C24,-C22)</f>
+        <v>250</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" ref="F24:F25" si="12">D24*E24</f>
+        <v>1177.5</v>
+      </c>
+      <c r="G24" s="11">
+        <f>SUM(F24,F25)</f>
+        <v>1432.5</v>
+      </c>
+      <c r="H24" s="11">
+        <v>1432.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
+        <v>4670</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="12"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G26" s="11">
         <f>SUM(G2:G21)</f>
         <v>16020</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H26" s="11">
         <f>SUM(H2:H21)</f>
         <v>16194.9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11">
-        <f>SUM(H24,-G24)</f>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11">
+        <f>SUM(H26,-G26)</f>
         <v>174.89999999999964</v>
       </c>
     </row>

--- a/sputnik/personal/ee/214ee.xlsx
+++ b/sputnik/personal/ee/214ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -175,6 +175,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -482,10 +484,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -676,11 +678,11 @@
         <f t="shared" ref="F8:F15" si="1">D8*E8</f>
         <v>1796</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="13">
         <f>SUM(F8,F9)</f>
         <v>2282</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="13">
         <v>2306</v>
       </c>
     </row>
@@ -1033,11 +1035,11 @@
         <f t="shared" ref="F22:F23" si="10">D22*E22</f>
         <v>1177.5</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="12">
         <f>SUM(F22,F23)</f>
         <v>1687.5</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="12">
         <v>1432.5</v>
       </c>
     </row>
@@ -1115,26 +1117,77 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
+      <c r="A26" s="4">
+        <v>44127</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8">
+        <v>16245</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D27" si="13">SUM(C26,-C24)</f>
+        <v>250</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" ref="F26:F27" si="14">D26*E26</f>
+        <v>1177.5</v>
+      </c>
+      <c r="G26" s="11">
+        <f>SUM(F26,F27)</f>
+        <v>1432.5</v>
+      </c>
+      <c r="H26" s="11">
+        <v>1432.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>4770</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="14"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="11">
-        <f>SUM(G2:G21)</f>
-        <v>16020</v>
-      </c>
-      <c r="H26" s="11">
-        <f>SUM(H2:H21)</f>
-        <v>16194.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="2" t="s">
+      <c r="G28" s="11">
+        <f>SUM(G2:G27)</f>
+        <v>20572.5</v>
+      </c>
+      <c r="H28" s="11">
+        <f>SUM(H2:H27)</f>
+        <v>20492.400000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11">
-        <f>SUM(H26,-G26)</f>
-        <v>174.89999999999964</v>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11">
+        <f>SUM(H28,-G28)</f>
+        <v>-80.099999999998545</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/214ee.xlsx
+++ b/sputnik/personal/ee/214ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,12 +80,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -146,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -165,9 +159,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -175,7 +166,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -484,10 +474,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -533,61 +523,82 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43615</v>
+        <v>44176</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>12845</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="C2" s="8">
+        <v>16495</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D9" si="0">SUM(C2,-C4)</f>
+        <v>250</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="9">
+        <f t="shared" ref="F2:F11" si="1">D2*E2</f>
+        <v>1177.5</v>
+      </c>
+      <c r="G2" s="10">
+        <f>SUM(F2,F3)</f>
+        <v>1432.5</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1432.5</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>3370</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="C3" s="8">
+        <v>4870</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" si="1"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43691</v>
+        <v>44127</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>13095</v>
+      <c r="C4" s="8">
+        <v>16245</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="E4" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F4" s="10">
-        <f>D4*E4</f>
-        <v>1122.5</v>
-      </c>
-      <c r="G4" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="1"/>
+        <v>1177.5</v>
+      </c>
+      <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>1608.5</v>
-      </c>
-      <c r="H4" s="11">
-        <v>1620.5</v>
+        <v>1432.5</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1432.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -595,48 +606,50 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>3570</v>
+      <c r="C5" s="8">
+        <v>4770</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E5" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F5" s="10">
-        <f>D5*E5</f>
-        <v>486.00000000000006</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="1"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43735</v>
+        <v>44088</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="8">
-        <v>13145</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
+        <v>15995</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="E6" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1849</v>
-      </c>
-      <c r="G6" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="1"/>
+        <v>1177.5</v>
+      </c>
+      <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>1849</v>
-      </c>
-      <c r="H6" s="11">
-        <v>1849</v>
+        <v>1432.5</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1432.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -645,45 +658,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="8">
-        <v>3570</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
+        <v>4670</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E7" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="1"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43746</v>
+        <v>44057</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="9">
-        <v>13545</v>
+      <c r="C8" s="8">
+        <v>15745</v>
       </c>
       <c r="D8" s="3">
-        <f>SUM(C8,-C6)</f>
-        <v>400</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="E8" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" ref="F8:F15" si="1">D8*E8</f>
-        <v>1796</v>
-      </c>
-      <c r="G8" s="13">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="1"/>
+        <v>1177.5</v>
+      </c>
+      <c r="G8" s="11">
         <f>SUM(F8,F9)</f>
-        <v>2282</v>
-      </c>
-      <c r="H8" s="13">
-        <v>2306</v>
+        <v>1687.5</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1432.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -691,50 +708,50 @@
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="9">
-        <v>3770</v>
+      <c r="C9" s="8">
+        <v>4570</v>
       </c>
       <c r="D9" s="3">
-        <f>SUM(C9,-C7)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="9">
         <f t="shared" si="1"/>
-        <v>486.00000000000006</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43753</v>
+        <v>44036</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="9">
-        <v>13945</v>
+      <c r="C10" s="8">
+        <v>15495</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D15" si="2">SUM(C10,-C8)</f>
-        <v>400</v>
+        <f>SUM(C10,-C12)</f>
+        <v>250</v>
       </c>
       <c r="E10" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="9">
         <f t="shared" si="1"/>
-        <v>1796</v>
-      </c>
-      <c r="G10" s="11">
+        <v>1177.5</v>
+      </c>
+      <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>1820.3</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1851.9</v>
+        <v>1432.5</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1431.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -742,51 +759,38 @@
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="9">
-        <v>3780</v>
+      <c r="C11" s="8">
+        <v>4370</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>SUM(C11,-C13)</f>
+        <v>100</v>
       </c>
       <c r="E11" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="9">
         <f t="shared" si="1"/>
-        <v>24.3</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43833</v>
+        <v>44011</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="8">
-        <v>14345</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" si="1"/>
-        <v>1796</v>
-      </c>
-      <c r="G12" s="11">
-        <f>SUM(F12,F13)</f>
-        <v>2039</v>
-      </c>
-      <c r="H12" s="11">
-        <v>2067</v>
-      </c>
+        <v>15245</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -794,400 +798,35 @@
         <v>1</v>
       </c>
       <c r="C13" s="8">
-        <v>3880</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="10">
-        <f t="shared" si="1"/>
-        <v>243.00000000000003</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+        <v>4270</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43872</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
-        <v>14745</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="10">
-        <f t="shared" si="1"/>
-        <v>1796</v>
-      </c>
-      <c r="G14" s="11">
-        <f>SUM(F14,F15)</f>
-        <v>2039</v>
-      </c>
-      <c r="H14" s="11">
-        <v>2067</v>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(G2:G12)</f>
+        <v>7417.5</v>
+      </c>
+      <c r="H14" s="10">
+        <f>SUM(H2:H12)</f>
+        <v>7161.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8">
-        <v>3980</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="10">
-        <f t="shared" si="1"/>
-        <v>243.00000000000003</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>43915</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
-        <v>14995</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" ref="D16:D17" si="3">SUM(C16,-C14)</f>
-        <v>250</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="10">
-        <f t="shared" ref="F16:F17" si="4">D16*E16</f>
-        <v>1122.5</v>
-      </c>
-      <c r="G16" s="11">
-        <f>SUM(F16,F17)</f>
-        <v>1341.2</v>
-      </c>
-      <c r="H16" s="11">
-        <v>1381.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8">
-        <v>4070</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="10">
-        <f t="shared" si="4"/>
-        <v>218.70000000000002</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>44011</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="8">
-        <v>15245</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" ref="D18:D19" si="5">SUM(C18,-C16)</f>
-        <v>250</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F18" s="10">
-        <f t="shared" ref="F18:F19" si="6">D18*E18</f>
-        <v>1122.5</v>
-      </c>
-      <c r="G18" s="11">
-        <f>SUM(F18,F19)</f>
-        <v>1608.5</v>
-      </c>
-      <c r="H18" s="11">
-        <v>1620.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8">
-        <v>4270</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F19" s="10">
-        <f t="shared" si="6"/>
-        <v>486.00000000000006</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>44036</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="8">
-        <v>15495</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" ref="D20:D21" si="7">SUM(C20,-C18)</f>
-        <v>250</v>
-      </c>
-      <c r="E20" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="10">
-        <f t="shared" ref="F20:F21" si="8">D20*E20</f>
-        <v>1177.5</v>
-      </c>
-      <c r="G20" s="11">
-        <f>SUM(F20,F21)</f>
-        <v>1432.5</v>
-      </c>
-      <c r="H20" s="11">
-        <v>1431.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8">
-        <v>4370</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="10">
-        <f t="shared" si="8"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>44057</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8">
-        <v>15745</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" ref="D22:D23" si="9">SUM(C22,-C20)</f>
-        <v>250</v>
-      </c>
-      <c r="E22" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" ref="F22:F23" si="10">D22*E22</f>
-        <v>1177.5</v>
-      </c>
-      <c r="G22" s="12">
-        <f>SUM(F22,F23)</f>
-        <v>1687.5</v>
-      </c>
-      <c r="H22" s="12">
-        <v>1432.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8">
-        <v>4570</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="9"/>
-        <v>200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F23" s="10">
-        <f t="shared" si="10"/>
-        <v>509.99999999999994</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>44088</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8">
-        <v>15995</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" ref="D24:D25" si="11">SUM(C24,-C22)</f>
-        <v>250</v>
-      </c>
-      <c r="E24" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F24" s="10">
-        <f t="shared" ref="F24:F25" si="12">D24*E24</f>
-        <v>1177.5</v>
-      </c>
-      <c r="G24" s="11">
-        <f>SUM(F24,F25)</f>
-        <v>1432.5</v>
-      </c>
-      <c r="H24" s="11">
-        <v>1432.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="8">
-        <v>4670</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F25" s="10">
-        <f t="shared" si="12"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>44127</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="8">
-        <v>16245</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" ref="D26:D27" si="13">SUM(C26,-C24)</f>
-        <v>250</v>
-      </c>
-      <c r="E26" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" ref="F26:F27" si="14">D26*E26</f>
-        <v>1177.5</v>
-      </c>
-      <c r="G26" s="11">
-        <f>SUM(F26,F27)</f>
-        <v>1432.5</v>
-      </c>
-      <c r="H26" s="11">
-        <v>1432.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="8">
-        <v>4770</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="14"/>
-        <v>254.99999999999997</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="11">
-        <f>SUM(G2:G27)</f>
-        <v>20572.5</v>
-      </c>
-      <c r="H28" s="11">
-        <f>SUM(H2:H27)</f>
-        <v>20492.400000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11">
-        <f>SUM(H28,-G28)</f>
-        <v>-80.099999999998545</v>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
+        <f>SUM(H14,-G14)</f>
+        <v>-256</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/214ee.xlsx
+++ b/sputnik/personal/ee/214ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -92,12 +92,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -140,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -167,6 +173,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -474,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -522,32 +531,32 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>44176</v>
+      <c r="A2" s="12">
+        <v>44292</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8">
-        <v>16495</v>
+        <v>16995</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D9" si="0">SUM(C2,-C4)</f>
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
         <v>250</v>
       </c>
       <c r="E2" s="7">
         <v>4.71</v>
       </c>
       <c r="F2" s="9">
-        <f t="shared" ref="F2:F11" si="1">D2*E2</f>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
         <v>1177.5</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>1432.5</v>
+        <v>1254</v>
       </c>
       <c r="H2" s="10">
-        <v>1432.5</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -556,41 +565,41 @@
         <v>1</v>
       </c>
       <c r="C3" s="8">
-        <v>4870</v>
+        <v>5000</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" si="1"/>
-        <v>254.99999999999997</v>
+        <v>76.5</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44127</v>
+        <v>44274</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8">
-        <v>16245</v>
+        <v>16745</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
         <v>250</v>
       </c>
       <c r="E4" s="7">
         <v>4.71</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
         <v>1177.5</v>
       </c>
       <c r="G4" s="10">
@@ -607,17 +616,17 @@
         <v>1</v>
       </c>
       <c r="C5" s="8">
-        <v>4770</v>
+        <v>4970</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G5" s="10"/>
@@ -625,23 +634,23 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44088</v>
+        <v>44176</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="8">
-        <v>15995</v>
+        <v>16495</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D6:D13" si="4">SUM(C6,-C8)</f>
         <v>250</v>
       </c>
       <c r="E6" s="7">
         <v>4.71</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F6:F15" si="5">D6*E6</f>
         <v>1177.5</v>
       </c>
       <c r="G6" s="10">
@@ -658,17 +667,17 @@
         <v>1</v>
       </c>
       <c r="C7" s="8">
-        <v>4670</v>
+        <v>4870</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G7" s="10"/>
@@ -676,30 +685,30 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44057</v>
+        <v>44127</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="8">
-        <v>15745</v>
+        <v>16245</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="E8" s="7">
         <v>4.71</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1177.5</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>1687.5</v>
-      </c>
-      <c r="H8" s="11">
+        <v>1432.5</v>
+      </c>
+      <c r="H8" s="10">
         <v>1432.5</v>
       </c>
     </row>
@@ -709,41 +718,41 @@
         <v>1</v>
       </c>
       <c r="C9" s="8">
-        <v>4570</v>
+        <v>4770</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="1"/>
-        <v>509.99999999999994</v>
+        <f t="shared" si="5"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>44036</v>
+        <v>44088</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="8">
-        <v>15495</v>
+        <v>15995</v>
       </c>
       <c r="D10" s="3">
-        <f>SUM(C10,-C12)</f>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="E10" s="7">
         <v>4.71</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1177.5</v>
       </c>
       <c r="G10" s="10">
@@ -751,7 +760,7 @@
         <v>1432.5</v>
       </c>
       <c r="H10" s="10">
-        <v>1431.5</v>
+        <v>1432.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -760,17 +769,17 @@
         <v>1</v>
       </c>
       <c r="C11" s="8">
-        <v>4370</v>
+        <v>4670</v>
       </c>
       <c r="D11" s="3">
-        <f>SUM(C11,-C13)</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G11" s="10"/>
@@ -778,19 +787,32 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>44011</v>
+        <v>44057</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="8">
-        <v>15245</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+        <v>15745</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="5"/>
+        <v>1177.5</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(F12,F13)</f>
+        <v>1687.5</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1432.5</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -798,34 +820,123 @@
         <v>1</v>
       </c>
       <c r="C13" s="8">
-        <v>4270</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="9"/>
+        <v>4570</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="5"/>
+        <v>509.99999999999994</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
+      <c r="A14" s="4">
+        <v>44036</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>15495</v>
+      </c>
+      <c r="D14" s="3">
+        <f>SUM(C14,-C16)</f>
+        <v>250</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="5"/>
+        <v>1177.5</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>1432.5</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1431.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4370</v>
+      </c>
+      <c r="D15" s="3">
+        <f>SUM(C15,-C17)</f>
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="5"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44011</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>15245</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4270</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="10">
-        <f>SUM(G2:G12)</f>
-        <v>7417.5</v>
-      </c>
-      <c r="H14" s="10">
-        <f>SUM(H2:H12)</f>
-        <v>7161.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2" t="s">
+      <c r="G18" s="10">
+        <f>SUM(G2:G17)</f>
+        <v>10104</v>
+      </c>
+      <c r="H18" s="10">
+        <f>SUM(H2:H17)</f>
+        <v>9848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10">
-        <f>SUM(H14,-G14)</f>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <f>SUM(H18,-G18)</f>
         <v>-256</v>
       </c>
     </row>

--- a/sputnik/personal/ee/214ee.xlsx
+++ b/sputnik/personal/ee/214ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -92,7 +92,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -174,6 +180,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,10 +492,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -532,31 +541,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44292</v>
+        <v>44362</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8">
-        <v>16995</v>
+        <v>17195</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
+        <f>SUM(C2,-C4)</f>
         <v>250</v>
       </c>
       <c r="E2" s="7">
         <v>4.71</v>
       </c>
       <c r="F2" s="9">
-        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
         <v>1177.5</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>1254</v>
+        <v>1432.5</v>
       </c>
       <c r="H2" s="10">
-        <v>1254</v>
+        <v>1432.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -565,49 +574,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="8">
-        <v>5000</v>
+        <v>5092</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" ref="D2:D3" si="1">SUM(C3,-C5)</f>
+        <v>100</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" si="1"/>
-        <v>76.5</v>
+        <f t="shared" si="0"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>44274</v>
+      <c r="A4" s="13">
+        <v>44292</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8">
-        <v>16745</v>
+        <v>16945</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E4" s="7">
         <v>4.71</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>1177.5</v>
+        <v>942</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>1432.5</v>
+        <v>1253.0999999999999</v>
       </c>
       <c r="H4" s="10">
-        <v>1432.5</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -616,41 +625,41 @@
         <v>1</v>
       </c>
       <c r="C5" s="8">
-        <v>4970</v>
+        <v>4992</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="3"/>
-        <v>254.99999999999997</v>
+        <v>311.09999999999997</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44176</v>
+        <v>44274</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="8">
-        <v>16495</v>
+        <v>16745</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D13" si="4">SUM(C6,-C8)</f>
+        <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
         <v>250</v>
       </c>
       <c r="E6" s="7">
         <v>4.71</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" ref="F6:F15" si="5">D6*E6</f>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
         <v>1177.5</v>
       </c>
       <c r="G6" s="10">
@@ -685,23 +694,23 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44127</v>
+        <v>44176</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="8">
-        <v>16245</v>
+        <v>16495</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D8:D15" si="6">SUM(C8,-C10)</f>
         <v>250</v>
       </c>
       <c r="E8" s="7">
         <v>4.71</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F8:F17" si="7">D8*E8</f>
         <v>1177.5</v>
       </c>
       <c r="G8" s="10">
@@ -721,14 +730,14 @@
         <v>4770</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G9" s="10"/>
@@ -736,23 +745,23 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>44088</v>
+        <v>44127</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="8">
-        <v>15995</v>
+        <v>16245</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="E10" s="7">
         <v>4.71</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1177.5</v>
       </c>
       <c r="G10" s="10">
@@ -772,14 +781,14 @@
         <v>4670</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G11" s="10"/>
@@ -787,30 +796,30 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>44057</v>
+        <v>44088</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="8">
-        <v>15745</v>
+        <v>15995</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="E12" s="7">
         <v>4.71</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1177.5</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
-        <v>1687.5</v>
-      </c>
-      <c r="H12" s="11">
+        <v>1432.5</v>
+      </c>
+      <c r="H12" s="10">
         <v>1432.5</v>
       </c>
     </row>
@@ -823,46 +832,46 @@
         <v>4570</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="5"/>
-        <v>509.99999999999994</v>
+        <f t="shared" si="7"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>44036</v>
+        <v>44057</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="8">
-        <v>15495</v>
+        <v>15745</v>
       </c>
       <c r="D14" s="3">
-        <f>SUM(C14,-C16)</f>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="E14" s="7">
         <v>4.71</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1177.5</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="11">
         <f>SUM(F14,F15)</f>
         <v>1432.5</v>
       </c>
-      <c r="H14" s="10">
-        <v>1431.5</v>
+      <c r="H14" s="11">
+        <v>1432.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -871,17 +880,17 @@
         <v>1</v>
       </c>
       <c r="C15" s="8">
-        <v>4370</v>
+        <v>4470</v>
       </c>
       <c r="D15" s="3">
-        <f>SUM(C15,-C17)</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G15" s="10"/>
@@ -889,19 +898,32 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>44011</v>
+        <v>44036</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="8">
-        <v>15245</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+        <v>15495</v>
+      </c>
+      <c r="D16" s="3">
+        <f>SUM(C16,-C18)</f>
+        <v>250</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="7"/>
+        <v>1177.5</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(F16,F17)</f>
+        <v>1432.5</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1431.5</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -909,35 +931,73 @@
         <v>1</v>
       </c>
       <c r="C17" s="8">
-        <v>4270</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="9"/>
+        <v>4370</v>
+      </c>
+      <c r="D17" s="3">
+        <f>SUM(C17,-C19)</f>
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="7"/>
+        <v>254.99999999999997</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="4">
+        <v>44011</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>15245</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4270</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="10">
-        <f>SUM(G2:G17)</f>
-        <v>10104</v>
-      </c>
-      <c r="H18" s="10">
-        <f>SUM(H2:H17)</f>
+      <c r="G20" s="10">
+        <f>SUM(G4:G19)</f>
+        <v>9848.1</v>
+      </c>
+      <c r="H20" s="10">
+        <f>SUM(H4:H19)</f>
         <v>9848</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10">
-        <f>SUM(H18,-G18)</f>
-        <v>-256</v>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <f>SUM(H20,-G20)</f>
+        <v>-0.1000000000003638</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/214ee.xlsx
+++ b/sputnik/personal/ee/214ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -492,10 +492,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -541,31 +541,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44362</v>
+        <v>44428</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8">
-        <v>17195</v>
+        <v>18195</v>
       </c>
       <c r="D2" s="3">
         <f>SUM(C2,-C4)</f>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="E2" s="7">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="9">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>1177.5</v>
+        <v>4960</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>1432.5</v>
+        <v>6032</v>
       </c>
       <c r="H2" s="10">
-        <v>1432.5</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -574,49 +574,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="8">
-        <v>5092</v>
+        <v>5492</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D2:D3" si="1">SUM(C3,-C5)</f>
-        <v>100</v>
+        <f t="shared" ref="D3" si="1">SUM(C3,-C5)</f>
+        <v>400</v>
       </c>
       <c r="E3" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" si="0"/>
-        <v>254.99999999999997</v>
+        <v>1072</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>44292</v>
+        <v>44362</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8">
-        <v>16945</v>
+        <v>17195</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>200</v>
+        <f>SUM(C4,-C6)</f>
+        <v>250</v>
       </c>
       <c r="E4" s="7">
         <v>4.71</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>942</v>
+        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
+        <v>1177.5</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>1253.0999999999999</v>
+        <v>1432.5</v>
       </c>
       <c r="H4" s="10">
-        <v>1254</v>
+        <v>1432.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -625,49 +625,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="8">
-        <v>4992</v>
+        <v>5092</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="2"/>
-        <v>122</v>
+        <f t="shared" ref="D5" si="3">SUM(C5,-C7)</f>
+        <v>100</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" si="3"/>
-        <v>311.09999999999997</v>
+        <f t="shared" si="2"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>44274</v>
+      <c r="A6" s="13">
+        <v>44292</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="8">
-        <v>16745</v>
+        <v>16945</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E6" s="7">
         <v>4.71</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>1177.5</v>
+        <v>942</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>1432.5</v>
+        <v>1253.0999999999999</v>
       </c>
       <c r="H6" s="10">
-        <v>1432.5</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -676,41 +676,41 @@
         <v>1</v>
       </c>
       <c r="C7" s="8">
-        <v>4870</v>
+        <v>4992</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="5"/>
-        <v>254.99999999999997</v>
+        <v>311.09999999999997</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44176</v>
+        <v>44274</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="8">
-        <v>16495</v>
+        <v>16745</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D15" si="6">SUM(C8,-C10)</f>
+        <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
         <v>250</v>
       </c>
       <c r="E8" s="7">
         <v>4.71</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" ref="F8:F17" si="7">D8*E8</f>
+        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
         <v>1177.5</v>
       </c>
       <c r="G8" s="10">
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="8">
-        <v>4770</v>
+        <v>4870</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="6"/>
@@ -745,23 +745,23 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>44127</v>
+        <v>44176</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="8">
-        <v>16245</v>
+        <v>16495</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D10:D17" si="8">SUM(C10,-C12)</f>
         <v>250</v>
       </c>
       <c r="E10" s="7">
         <v>4.71</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F10:F19" si="9">D10*E10</f>
         <v>1177.5</v>
       </c>
       <c r="G10" s="10">
@@ -778,17 +778,17 @@
         <v>1</v>
       </c>
       <c r="C11" s="8">
-        <v>4670</v>
+        <v>4770</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G11" s="10"/>
@@ -796,23 +796,23 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>44088</v>
+        <v>44127</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="8">
-        <v>15995</v>
+        <v>16245</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
       <c r="E12" s="7">
         <v>4.71</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1177.5</v>
       </c>
       <c r="G12" s="10">
@@ -829,17 +829,17 @@
         <v>1</v>
       </c>
       <c r="C13" s="8">
-        <v>4570</v>
+        <v>4670</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G13" s="10"/>
@@ -847,30 +847,30 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>44057</v>
+        <v>44088</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="8">
-        <v>15745</v>
+        <v>15995</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
       <c r="E14" s="7">
         <v>4.71</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1177.5</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
         <v>1432.5</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>1432.5</v>
       </c>
     </row>
@@ -880,17 +880,17 @@
         <v>1</v>
       </c>
       <c r="C15" s="8">
-        <v>4470</v>
+        <v>4570</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G15" s="10"/>
@@ -898,31 +898,31 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>44036</v>
+        <v>44057</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="8">
-        <v>15495</v>
+        <v>15745</v>
       </c>
       <c r="D16" s="3">
-        <f>SUM(C16,-C18)</f>
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
       <c r="E16" s="7">
         <v>4.71</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1177.5</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="11">
         <f>SUM(F16,F17)</f>
         <v>1432.5</v>
       </c>
-      <c r="H16" s="10">
-        <v>1431.5</v>
+      <c r="H16" s="11">
+        <v>1432.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -931,17 +931,17 @@
         <v>1</v>
       </c>
       <c r="C17" s="8">
-        <v>4370</v>
+        <v>4470</v>
       </c>
       <c r="D17" s="3">
-        <f>SUM(C17,-C19)</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G17" s="10"/>
@@ -949,19 +949,32 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>44011</v>
+        <v>44036</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="8">
-        <v>15245</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+        <v>15495</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(C18,-C20)</f>
+        <v>250</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="9"/>
+        <v>1177.5</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>1432.5</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1431.5</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -969,35 +982,73 @@
         <v>1</v>
       </c>
       <c r="C19" s="8">
-        <v>4270</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="9"/>
+        <v>4370</v>
+      </c>
+      <c r="D19" s="3">
+        <f>SUM(C19,-C21)</f>
+        <v>100</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="9"/>
+        <v>254.99999999999997</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="4">
+        <v>44011</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>15245</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>4270</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="10">
-        <f>SUM(G4:G19)</f>
-        <v>9848.1</v>
-      </c>
-      <c r="H20" s="10">
-        <f>SUM(H4:H19)</f>
-        <v>9848</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+      <c r="G22" s="10">
+        <f>SUM(G2:G21)</f>
+        <v>17312.599999999999</v>
+      </c>
+      <c r="H22" s="10">
+        <f>SUM(H2:H21)</f>
+        <v>17010.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10">
-        <f>SUM(H20,-G20)</f>
-        <v>-0.1000000000003638</v>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
+        <f>SUM(H22,-G22)</f>
+        <v>-302.09999999999854</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/214ee.xlsx
+++ b/sputnik/personal/ee/214ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -492,10 +492,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -541,31 +541,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>44428</v>
+        <v>44495</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8">
-        <v>18195</v>
+        <v>18495</v>
       </c>
       <c r="D2" s="3">
         <f>SUM(C2,-C4)</f>
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E2" s="7">
         <v>4.96</v>
       </c>
       <c r="F2" s="9">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>4960</v>
+        <v>1488</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>6032</v>
+        <v>1777.44</v>
       </c>
       <c r="H2" s="10">
-        <v>5730</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -574,49 +574,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="8">
-        <v>5492</v>
+        <v>5600</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3" si="1">SUM(C3,-C5)</f>
-        <v>400</v>
+        <v>108</v>
       </c>
       <c r="E3" s="3">
         <v>2.68</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" si="0"/>
-        <v>1072</v>
+        <v>289.44</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>44362</v>
+        <v>44428</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8">
-        <v>17195</v>
+        <v>18195</v>
       </c>
       <c r="D4" s="3">
         <f>SUM(C4,-C6)</f>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="7">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>1177.5</v>
+        <v>4960</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>1432.5</v>
+        <v>6032</v>
       </c>
       <c r="H4" s="10">
-        <v>1432.5</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -625,49 +625,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="8">
-        <v>5092</v>
+        <v>5492</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ref="D5" si="3">SUM(C5,-C7)</f>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E5" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="2"/>
-        <v>254.99999999999997</v>
+        <v>1072</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>44292</v>
+        <v>44362</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="8">
-        <v>16945</v>
+        <v>17195</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>200</v>
+        <f>SUM(C6,-C8)</f>
+        <v>250</v>
       </c>
       <c r="E6" s="7">
         <v>4.71</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>942</v>
+        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
+        <v>1177.5</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>1253.0999999999999</v>
+        <v>1432.5</v>
       </c>
       <c r="H6" s="10">
-        <v>1254</v>
+        <v>1432.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -676,49 +676,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="8">
-        <v>4992</v>
+        <v>5092</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="4"/>
-        <v>122</v>
+        <f t="shared" ref="D7" si="5">SUM(C7,-C9)</f>
+        <v>100</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="5"/>
-        <v>311.09999999999997</v>
+        <f t="shared" si="4"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>44274</v>
+      <c r="A8" s="13">
+        <v>44292</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="8">
-        <v>16745</v>
+        <v>16945</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E8" s="7">
         <v>4.71</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" ref="F8:F9" si="7">D8*E8</f>
-        <v>1177.5</v>
+        <v>942</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>1432.5</v>
+        <v>1253.0999999999999</v>
       </c>
       <c r="H8" s="10">
-        <v>1432.5</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -727,41 +727,41 @@
         <v>1</v>
       </c>
       <c r="C9" s="8">
-        <v>4870</v>
+        <v>4992</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="7"/>
-        <v>254.99999999999997</v>
+        <v>311.09999999999997</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>44176</v>
+        <v>44274</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="8">
-        <v>16495</v>
+        <v>16745</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D17" si="8">SUM(C10,-C12)</f>
+        <f t="shared" ref="D10:D11" si="8">SUM(C10,-C12)</f>
         <v>250</v>
       </c>
       <c r="E10" s="7">
         <v>4.71</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" ref="F10:F19" si="9">D10*E10</f>
+        <f t="shared" ref="F10:F11" si="9">D10*E10</f>
         <v>1177.5</v>
       </c>
       <c r="G10" s="10">
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="8">
-        <v>4770</v>
+        <v>4870</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="8"/>
@@ -796,23 +796,23 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>44127</v>
+        <v>44176</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="8">
-        <v>16245</v>
+        <v>16495</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D12:D19" si="10">SUM(C12,-C14)</f>
         <v>250</v>
       </c>
       <c r="E12" s="7">
         <v>4.71</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="F12:F21" si="11">D12*E12</f>
         <v>1177.5</v>
       </c>
       <c r="G12" s="10">
@@ -829,17 +829,17 @@
         <v>1</v>
       </c>
       <c r="C13" s="8">
-        <v>4670</v>
+        <v>4770</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G13" s="10"/>
@@ -847,23 +847,23 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>44088</v>
+        <v>44127</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="8">
-        <v>15995</v>
+        <v>16245</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>250</v>
       </c>
       <c r="E14" s="7">
         <v>4.71</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1177.5</v>
       </c>
       <c r="G14" s="10">
@@ -880,17 +880,17 @@
         <v>1</v>
       </c>
       <c r="C15" s="8">
-        <v>4570</v>
+        <v>4670</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G15" s="10"/>
@@ -898,30 +898,30 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>44057</v>
+        <v>44088</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="8">
-        <v>15745</v>
+        <v>15995</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>250</v>
       </c>
       <c r="E16" s="7">
         <v>4.71</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1177.5</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
         <v>1432.5</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>1432.5</v>
       </c>
     </row>
@@ -931,17 +931,17 @@
         <v>1</v>
       </c>
       <c r="C17" s="8">
-        <v>4470</v>
+        <v>4570</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G17" s="10"/>
@@ -949,31 +949,31 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>44036</v>
+        <v>44057</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="8">
-        <v>15495</v>
+        <v>15745</v>
       </c>
       <c r="D18" s="3">
-        <f>SUM(C18,-C20)</f>
+        <f t="shared" si="10"/>
         <v>250</v>
       </c>
       <c r="E18" s="7">
         <v>4.71</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1177.5</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="11">
         <f>SUM(F18,F19)</f>
         <v>1432.5</v>
       </c>
-      <c r="H18" s="10">
-        <v>1431.5</v>
+      <c r="H18" s="11">
+        <v>1432.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -982,17 +982,17 @@
         <v>1</v>
       </c>
       <c r="C19" s="8">
-        <v>4370</v>
+        <v>4470</v>
       </c>
       <c r="D19" s="3">
-        <f>SUM(C19,-C21)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="E19" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G19" s="10"/>
@@ -1000,19 +1000,32 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>44011</v>
+        <v>44036</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="8">
-        <v>15245</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+        <v>15495</v>
+      </c>
+      <c r="D20" s="3">
+        <f>SUM(C20,-C22)</f>
+        <v>250</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="11"/>
+        <v>1177.5</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(F20,F21)</f>
+        <v>1432.5</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1431.5</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -1020,34 +1033,72 @@
         <v>1</v>
       </c>
       <c r="C21" s="8">
-        <v>4270</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="9"/>
+        <v>4370</v>
+      </c>
+      <c r="D21" s="3">
+        <f>SUM(C21,-C23)</f>
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="11"/>
+        <v>254.99999999999997</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="4">
+        <v>44011</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>15245</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4270</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="10">
-        <f>SUM(G2:G21)</f>
+      <c r="G24" s="10">
+        <f>SUM(G4:G23)</f>
         <v>17312.599999999999</v>
       </c>
-      <c r="H22" s="10">
-        <f>SUM(H2:H21)</f>
+      <c r="H24" s="10">
+        <f>SUM(H4:H23)</f>
         <v>17010.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10">
-        <f>SUM(H22,-G22)</f>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
+        <f>SUM(H24,-G24)</f>
         <v>-302.09999999999854</v>
       </c>
     </row>
